--- a/r2_results.xlsx
+++ b/r2_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IITG\IITG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1793610D-982D-45E1-A518-44A21044AAEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1188BBF-7FB6-427B-851D-132364801B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5370" yWindow="1560" windowWidth="15375" windowHeight="7785" xr2:uid="{C9450940-AE27-4390-BE59-9F02976ACA31}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{C9450940-AE27-4390-BE59-9F02976ACA31}"/>
   </bookViews>
   <sheets>
     <sheet name="r2_results" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="7">
   <si>
     <t>Frequency</t>
   </si>
@@ -29,6 +29,18 @@
   </si>
   <si>
     <t>R2eff_error</t>
+  </si>
+  <si>
+    <t>AminoAcid</t>
+  </si>
+  <si>
+    <t>(88Lys/90Tyr/210Tyr/214Glu)N</t>
+  </si>
+  <si>
+    <t>(152Gln/201Asn/224Met)N</t>
+  </si>
+  <si>
+    <t>(15Lys/336Met/339Phe/348Ile)N</t>
   </si>
 </sst>
 </file>
@@ -889,122 +901,404 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662BCF9A-4CAB-4848-A3E9-49FC9B93A862}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
         <v>50</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>30.046162529115598</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0.140712440749304</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
         <v>100</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>31.087076106881</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.13783521150068401</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
         <v>250</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>28.2238251430195</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.13352080555666701</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
         <v>500</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>26.972119750744699</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.125598816183389</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
         <v>750</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>27.4174603121456</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>0.12634055810230599</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
         <v>1000</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>27.5997677790217</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.127997179774583</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
         <v>1250</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>27.056785871177699</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.12877579488274399</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
         <v>1500</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>27.189061312038099</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.122651877616391</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
         <v>2000</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>27.5420532478099</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>0.12789025250555</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="C11">
+        <v>31.0564427346313</v>
+      </c>
+      <c r="D11">
+        <v>0.27989489102543103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>100</v>
+      </c>
+      <c r="C12">
+        <v>28.925429615952499</v>
+      </c>
+      <c r="D12">
+        <v>0.26049011680704598</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>250</v>
+      </c>
+      <c r="C13">
+        <v>28.696070209051499</v>
+      </c>
+      <c r="D13">
+        <v>0.248356737438272</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>500</v>
+      </c>
+      <c r="C14">
+        <v>25.050149622562799</v>
+      </c>
+      <c r="D14">
+        <v>0.224788279606224</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>750</v>
+      </c>
+      <c r="C15">
+        <v>25.332552259096602</v>
+      </c>
+      <c r="D15">
+        <v>0.22265001160071099</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>1000</v>
+      </c>
+      <c r="C16">
+        <v>25.703731363256001</v>
+      </c>
+      <c r="D16">
+        <v>0.23336452873490099</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>1250</v>
+      </c>
+      <c r="C17">
+        <v>25.883560129252601</v>
+      </c>
+      <c r="D17">
+        <v>0.24607777555646901</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>1500</v>
+      </c>
+      <c r="C18">
+        <v>26.438962216236501</v>
+      </c>
+      <c r="D18">
+        <v>0.23081223543079701</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>2000</v>
+      </c>
+      <c r="C19">
+        <v>26.753838007951401</v>
+      </c>
+      <c r="D19">
+        <v>0.24484194807874601</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>50</v>
+      </c>
+      <c r="C20">
+        <v>33.112671829999996</v>
+      </c>
+      <c r="D20">
+        <v>0.20514152399999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>100</v>
+      </c>
+      <c r="C21">
+        <v>31.075509310000001</v>
+      </c>
+      <c r="D21">
+        <v>0.18885091000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>250</v>
+      </c>
+      <c r="C22">
+        <v>29.974755819999999</v>
+      </c>
+      <c r="D22">
+        <v>0.18063588899999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>500</v>
+      </c>
+      <c r="C23">
+        <v>28.49522447</v>
+      </c>
+      <c r="D23">
+        <v>0.16637628500000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>750</v>
+      </c>
+      <c r="C24">
+        <v>28.706924019999999</v>
+      </c>
+      <c r="D24">
+        <v>0.17407666599999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>1000</v>
+      </c>
+      <c r="C25">
+        <v>28.82531414</v>
+      </c>
+      <c r="D25">
+        <v>0.165768375</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>1250</v>
+      </c>
+      <c r="C26">
+        <v>28.58909191</v>
+      </c>
+      <c r="D26">
+        <v>0.16919762199999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>1500</v>
+      </c>
+      <c r="C27">
+        <v>28.324044220000001</v>
+      </c>
+      <c r="D27">
+        <v>0.15797335300000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>2000</v>
+      </c>
+      <c r="C28">
+        <v>29.031861230000001</v>
+      </c>
+      <c r="D28">
+        <v>0.16990613299999999</v>
       </c>
     </row>
   </sheetData>
